--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
-    <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
-    <sheet name="MyAccountPage" sheetId="4" r:id="rId4"/>
-    <sheet name="ResetPage" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
+    <sheet name="RegisterPage" sheetId="3" r:id="rId2"/>
+    <sheet name="MyAccountPage" sheetId="4" r:id="rId3"/>
+    <sheet name="ResetPage" sheetId="5" r:id="rId4"/>
+    <sheet name="Logindata" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Demo Web Shop</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>gujhjh@gmail.com</t>
+  </si>
+  <si>
+    <t>akhil</t>
   </si>
 </sst>
 </file>
@@ -458,38 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,10 +472,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -511,24 +483,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6">
         <v>123456</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>456789</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -546,7 +518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -565,19 +537,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -585,22 +557,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -641,7 +613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -656,12 +628,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -669,12 +641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,12 +656,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -698,4 +670,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>567811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>563782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="MyAccountPage" sheetId="4" r:id="rId3"/>
     <sheet name="ResetPage" sheetId="5" r:id="rId4"/>
     <sheet name="Logindata" sheetId="6" r:id="rId5"/>
+    <sheet name="UserManagement" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -80,6 +81,18 @@
   </si>
   <si>
     <t>akhil</t>
+  </si>
+  <si>
+    <t>Home - Llolll</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
   </si>
 </sst>
 </file>
@@ -175,8 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,29 +628,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -660,7 +681,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -676,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -721,4 +742,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>